--- a/Docx_Excel/DA2_TCGiaoDien.xlsx
+++ b/Docx_Excel/DA2_TCGiaoDien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7760"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Tong" sheetId="12" r:id="rId1"/>
@@ -2389,10 +2389,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2655,7 +2655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2695,6 +2695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,26 +3043,26 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3080,16 +3086,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3098,90 +3104,90 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3400,6 +3406,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3763,10 +3774,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F15"/>
+  <dimension ref="A3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -4036,6 +4047,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84">
+        <f>(D15/C15)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="84">
+        <f>(E15/D15)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
